--- a/LPsolve1/Excel/data.xlsx
+++ b/LPsolve1/Excel/data.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>مرکز</t>
   </si>
@@ -33,27 +33,47 @@
     <t>مبلغ چک</t>
   </si>
   <si>
-    <t>shahdAB</t>
+    <t>Holding</t>
   </si>
   <si>
-    <t>Baharan</t>
+    <t>shahdAB-1</t>
   </si>
   <si>
-    <t>Noosh</t>
+    <t>Baharan-1002</t>
   </si>
   <si>
-    <t>Holding</t>
+    <t>Noosh-504</t>
+  </si>
+  <si>
+    <t>shahdAB-12</t>
+  </si>
+  <si>
+    <t>Baharan-1003</t>
+  </si>
+  <si>
+    <t>Noosh-505</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_-_ر_ي_ا_ل_ ;_ * #,##0.00\-_ر_ي_ا_ل_ ;_ * &quot;-&quot;??_-_ر_ي_ا_ل_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_-_ر_ي_ا_ل_ ;_ * #,##0\-_ر_ي_ا_ل_ ;_ * &quot;-&quot;??_-_ر_ي_ا_ل_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -75,13 +95,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -360,19 +383,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -382,58 +406,873 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>74500000</v>
       </c>
       <c r="C2">
         <v>1001</v>
       </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>23800000</v>
       </c>
       <c r="C3">
         <v>1002</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B4" s="1">
+        <v>7822000</v>
       </c>
       <c r="C4">
         <v>1003</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1004</v>
+      </c>
+      <c r="D5" s="1">
+        <f>D2+100000</f>
+        <v>3100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B6" s="1">
+        <v>490000000</v>
+      </c>
+      <c r="C6">
+        <v>1005</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>545000000</v>
+      </c>
+      <c r="C7">
+        <v>1006</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>132600000</v>
+      </c>
+      <c r="C8">
+        <v>1007</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>1008</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" ref="D9" si="0">D6+100000</f>
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>1009</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>1010</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>1011</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>1012</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13" si="1">D10+100000</f>
+        <v>9100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>1013</v>
+      </c>
+      <c r="D14" s="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>1014</v>
+      </c>
+      <c r="D15" s="1">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>1015</v>
+      </c>
+      <c r="D16" s="1">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>1016</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" ref="D17" si="2">D14+100000</f>
+        <v>12100000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>1017</v>
+      </c>
+      <c r="D18" s="1">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>1018</v>
+      </c>
+      <c r="D19" s="1">
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>1019</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>1020</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>1021</v>
+      </c>
+      <c r="D22" s="1">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>1022</v>
+      </c>
+      <c r="D23" s="1">
+        <f>D20+100000</f>
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>1023</v>
+      </c>
+      <c r="D24" s="1">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>1024</v>
+      </c>
+      <c r="D25" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>1025</v>
+      </c>
+      <c r="D26" s="1">
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>1026</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" ref="D27" si="3">D24+100000</f>
+        <v>9100000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>1027</v>
+      </c>
+      <c r="D28" s="1">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>1028</v>
+      </c>
+      <c r="D29" s="1">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>1029</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>1030</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31" si="4">D28+100000</f>
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>1031</v>
+      </c>
+      <c r="D32" s="1">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>1032</v>
+      </c>
+      <c r="D33" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>1033</v>
+      </c>
+      <c r="D34" s="1">
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>1034</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" ref="D35:D87" si="5">D32+100000</f>
+        <v>9100000</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>1035</v>
+      </c>
+      <c r="D36" s="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>1036</v>
+      </c>
+      <c r="D37" s="1">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>1037</v>
+      </c>
+      <c r="D38" s="1">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>1038</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" ref="D39:D91" si="6">D36+100000</f>
+        <v>12100000</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>1039</v>
+      </c>
+      <c r="D40" s="1">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>1040</v>
+      </c>
+      <c r="D41" s="1">
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>1041</v>
+      </c>
+      <c r="D42" s="1">
+        <v>17000000</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>1042</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="6"/>
+        <v>15100000</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>1043</v>
+      </c>
+      <c r="D44" s="1">
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>1044</v>
+      </c>
+      <c r="D45" s="1">
+        <v>19000000</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>1045</v>
+      </c>
+      <c r="D46" s="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>1046</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="6"/>
+        <v>18100000</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>1047</v>
+      </c>
+      <c r="D48" s="1">
+        <v>21000000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>1048</v>
+      </c>
+      <c r="D49" s="1">
+        <v>22000000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>1049</v>
+      </c>
+      <c r="D50" s="1">
+        <v>23000000</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <v>1050</v>
+      </c>
+      <c r="D51" s="1">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>1051</v>
+      </c>
+      <c r="D52" s="1">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>1052</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" ref="D53:D79" si="7">D50+100000</f>
+        <v>23100000</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>1053</v>
+      </c>
+      <c r="D54" s="1">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>1054</v>
+      </c>
+      <c r="D55" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <v>1055</v>
+      </c>
+      <c r="D56" s="1">
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>1056</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" ref="D57" si="8">D54+100000</f>
+        <v>9100000</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>1057</v>
+      </c>
+      <c r="D58" s="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <v>1058</v>
+      </c>
+      <c r="D59" s="1">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <v>1059</v>
+      </c>
+      <c r="D60" s="1">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>1060</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="5"/>
+        <v>12100000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>1061</v>
+      </c>
+      <c r="D62" s="1">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <v>1062</v>
+      </c>
+      <c r="D63" s="1">
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>1063</v>
+      </c>
+      <c r="D64" s="1">
+        <v>17000000</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>1064</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="6"/>
+        <v>15100000</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <v>1065</v>
+      </c>
+      <c r="D66" s="1">
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <v>1066</v>
+      </c>
+      <c r="D67" s="1">
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C68">
+        <v>1067</v>
+      </c>
+      <c r="D68" s="1">
+        <v>19000000</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <v>1068</v>
+      </c>
+      <c r="D69" s="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <v>1069</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="6"/>
+        <v>18100000</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <v>1070</v>
+      </c>
+      <c r="D71" s="1">
+        <v>18000001</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <v>1071</v>
+      </c>
+      <c r="D72" s="1">
+        <v>21000000</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <v>1072</v>
+      </c>
+      <c r="D73" s="1">
+        <v>22000000</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <v>1073</v>
+      </c>
+      <c r="D74" s="1">
+        <v>23000000</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <v>1074</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="6"/>
+        <v>21100000</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C76">
+        <v>1075</v>
+      </c>
+      <c r="D76" s="1">
+        <v>18000002</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <v>1076</v>
+      </c>
+      <c r="D77" s="1">
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <v>1077</v>
+      </c>
+      <c r="D78" s="1">
+        <v>17000000</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <v>1078</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="7"/>
+        <v>18100002</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C80">
+        <v>1079</v>
+      </c>
+      <c r="D80" s="1">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C81">
+        <v>1080</v>
+      </c>
+      <c r="D81" s="1">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C82">
+        <v>1081</v>
+      </c>
+      <c r="D82" s="1">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C83">
+        <v>1082</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" ref="D83" si="9">D80+100000</f>
+        <v>12100000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C84">
+        <v>1083</v>
+      </c>
+      <c r="D84" s="1">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C85">
+        <v>1084</v>
+      </c>
+      <c r="D85" s="1">
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C86">
+        <v>1085</v>
+      </c>
+      <c r="D86" s="1">
+        <v>17000000</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C87">
+        <v>1086</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="5"/>
+        <v>15100000</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C88">
+        <v>1087</v>
+      </c>
+      <c r="D88" s="1">
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C89">
+        <v>1088</v>
+      </c>
+      <c r="D89" s="1">
+        <v>19000000</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C90">
+        <v>1089</v>
+      </c>
+      <c r="D90" s="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C91">
+        <v>1090</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="6"/>
+        <v>18100000</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C92">
+        <v>1091</v>
+      </c>
+      <c r="D92" s="1">
+        <v>21000000</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C93">
+        <v>1092</v>
+      </c>
+      <c r="D93" s="1">
+        <v>22000000</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C94">
+        <v>1093</v>
+      </c>
+      <c r="D94" s="1">
+        <v>23000000</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C95">
+        <v>1094</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" ref="D43:D95" si="10">D92+100000</f>
+        <v>21100000</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C96">
+        <v>1095</v>
+      </c>
+      <c r="D96" s="1">
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C97">
+        <v>1096</v>
+      </c>
+      <c r="D97" s="1">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C98">
+        <v>1097</v>
+      </c>
+      <c r="D98" s="1">
+        <v>26000000</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C99">
+        <v>1098</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" ref="D99" si="11">D96+100000</f>
+        <v>24100000</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C100">
+        <v>1099</v>
+      </c>
+      <c r="D100" s="1">
+        <v>27000000</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C101">
+        <v>1100</v>
+      </c>
+      <c r="D101" s="1">
+        <v>28000000</v>
       </c>
     </row>
   </sheetData>
